--- a/data/trans_bre/P57_AC_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.1310012328202936</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.010497193219024</v>
+        <v>2.010497193219007</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03763527915175878</v>
@@ -649,7 +649,7 @@
         <v>-0.001748443158106441</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.04403114090987877</v>
+        <v>0.04403114090987839</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.703947723456427</v>
+        <v>-3.84653596166016</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.632912725006999</v>
+        <v>-1.214706488321754</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.776214940634605</v>
+        <v>-5.571034552439744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.318272748733445</v>
+        <v>-8.182868723198972</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.07664696991824102</v>
+        <v>-0.06174201155067121</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.02664298106499169</v>
+        <v>-0.0192383830365745</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.0745390515167986</v>
+        <v>-0.07229315039956519</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1651471950366643</v>
+        <v>-0.1613025094375325</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.108197977681977</v>
+        <v>8.369655726479749</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.28579790321657</v>
+        <v>11.59628763575579</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.873903282872217</v>
+        <v>6.626033398793078</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.91261069460974</v>
+        <v>13.22707100241958</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1452305155096307</v>
+        <v>0.1503479023791938</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2136204687211724</v>
+        <v>0.2168536887887393</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08125899865738793</v>
+        <v>0.09292902692852839</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.321029693054359</v>
+        <v>0.3365722256020344</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.077136086754793</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-4.32044187270415</v>
+        <v>-4.320441872704139</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04681024769125012</v>
@@ -749,7 +749,7 @@
         <v>0.01393852895050976</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.0714041913434996</v>
+        <v>-0.07140419134349943</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.834487169455234</v>
+        <v>-2.153330890646967</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.065263486385554</v>
+        <v>1.163729573894191</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.831685060859833</v>
+        <v>-3.767752361968165</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-12.02259289517309</v>
+        <v>-11.81645072523287</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04476557793488909</v>
+        <v>-0.03191742953398746</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01625050849623475</v>
+        <v>0.01829084848233992</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04774365535963503</v>
+        <v>-0.04790670753918455</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1875494951317595</v>
+        <v>-0.1842342600012414</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.076029653800777</v>
+        <v>8.031327065086359</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.98187745422291</v>
+        <v>11.98756772527883</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.135975275901022</v>
+        <v>5.991605260051</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.130707235411222</v>
+        <v>3.143097644159147</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.131933001255336</v>
+        <v>0.1345885391401517</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1975986954622743</v>
+        <v>0.1994634835899191</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08281165108371313</v>
+        <v>0.08028559847187526</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.05512379871747788</v>
+        <v>0.05721279209943695</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.936862078240592</v>
+        <v>-3.736028199247928</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9407819640712047</v>
+        <v>0.5621795090321487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.796118138427778</v>
+        <v>-2.813758063494423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.446626576520773</v>
+        <v>-6.221694065301687</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.05463243010864123</v>
+        <v>-0.05195787111217093</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01335339712227319</v>
+        <v>0.007701123412056416</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.03522098035752384</v>
+        <v>-0.03545978226047609</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.09862527274147927</v>
+        <v>-0.09589521313716856</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.254248276159354</v>
+        <v>6.901699422743919</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.88779596173558</v>
+        <v>11.01537699250783</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.94750816128481</v>
+        <v>5.844107103655139</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.875327546220311</v>
+        <v>4.139581276477548</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.09631047840559734</v>
+        <v>0.1049259705744469</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1662750612080137</v>
+        <v>0.1665325076413467</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07920206649761338</v>
+        <v>0.07732422029225629</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.08203643518044075</v>
+        <v>0.07007196961001143</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.726305065746193</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.497598473318119</v>
+        <v>2.49759847331813</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.01583572460995871</v>
@@ -949,7 +949,7 @@
         <v>0.03364573653195337</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.04035661012299382</v>
+        <v>0.04035661012299401</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.30001561435041</v>
+        <v>-6.295988559519161</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.345375482725256</v>
+        <v>4.331302879028834</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.357553033721366</v>
+        <v>-2.158707071821887</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.39174173847463</v>
+        <v>-2.508407788737381</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.09714454118751312</v>
+        <v>-0.08573739193204667</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06117690161482788</v>
+        <v>0.06393165220883056</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01615926317830547</v>
+        <v>-0.02562827334452428</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03695216798681854</v>
+        <v>-0.03827326928531082</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.6744569807777</v>
+        <v>5.187151199125909</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.29926557072024</v>
+        <v>15.16914964807393</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.06079117310294</v>
+        <v>6.780456906598788</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.170474573312282</v>
+        <v>7.205642121323283</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06894231558728743</v>
+        <v>0.07592767961360553</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2315947783679236</v>
+        <v>0.2328912431043915</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09015820683926513</v>
+        <v>0.08600499312106484</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1215158549964171</v>
+        <v>0.1222697849504813</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.614270531861429</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.206601966461742</v>
+        <v>3.206601966461731</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08846561516107891</v>
@@ -1049,7 +1049,7 @@
         <v>0.03216003873371987</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.04673711133251272</v>
+        <v>0.04673711133251256</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2814238365096103</v>
+        <v>0.2824873907613969</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.127589634416748</v>
+        <v>2.244383747330694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.652218032358946</v>
+        <v>-2.45377030779543</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.006665771120359</v>
+        <v>-1.322575982135186</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.003686818559851354</v>
+        <v>0.004435179721713164</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0467671509202243</v>
+        <v>0.03521866877378867</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.03193892161151814</v>
+        <v>-0.02919515623108614</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.01396939751811474</v>
+        <v>-0.01860568399059065</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.52345197807143</v>
+        <v>12.6013805810732</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.90432651842646</v>
+        <v>15.9972464079768</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.338711566628247</v>
+        <v>7.516452388689032</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.898163317988455</v>
+        <v>8.232066390086407</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1859858241356401</v>
+        <v>0.1873663748471691</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2638790048561011</v>
+        <v>0.2659314402245059</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09298221215066299</v>
+        <v>0.09769021369584711</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1194454021530834</v>
+        <v>0.1267425311524324</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.874121139448931</v>
+        <v>-5.848411087496515</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.404637233218262</v>
+        <v>-3.548115188475345</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.621248366556435</v>
+        <v>5.126308041623624</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-5.805696722768971</v>
+        <v>-5.146588877445375</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.07172143008623176</v>
+        <v>-0.07042166467933275</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.04410653448668136</v>
+        <v>-0.04670530313455656</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05755285229585196</v>
+        <v>0.06362482924838728</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.08370388743813965</v>
+        <v>-0.07483659199801312</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.651179279725726</v>
+        <v>7.419985668876508</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.91329763975898</v>
+        <v>10.19531503794229</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.94121654215017</v>
+        <v>16.47292716937576</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.798312276136082</v>
+        <v>5.291702311745627</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09085733359724561</v>
+        <v>0.1032834742058606</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1436182831060462</v>
+        <v>0.1418178761456205</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2141980641073223</v>
+        <v>0.2241050227443271</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.07603108286239804</v>
+        <v>0.08359154737889572</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>3.0271188900859</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.22460955839331</v>
+        <v>3.224609558393299</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02866456698499143</v>
@@ -1249,7 +1249,7 @@
         <v>0.03588341924066178</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.04527268531899065</v>
+        <v>0.04527268531899049</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.192875551913182</v>
+        <v>-4.436595186009757</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.776333719109438</v>
+        <v>-5.479922480910625</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.686307328403795</v>
+        <v>-2.695516748684969</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.646500731690393</v>
+        <v>-2.399440660760214</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.06200561499124266</v>
+        <v>-0.05278026035164908</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.07292996699438607</v>
+        <v>-0.06798881873271112</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.03045360571480154</v>
+        <v>-0.03043777725123795</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.02247046356092575</v>
+        <v>-0.03136025925245535</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.874213857812984</v>
+        <v>9.542998382243665</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.400816740139545</v>
+        <v>9.439151314234266</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.358673846258213</v>
+        <v>8.454938794254163</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.874672375698218</v>
+        <v>8.575191305688353</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.132369592365246</v>
+        <v>0.1282267769275448</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1365120038253637</v>
+        <v>0.1363414114664473</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1028994468589722</v>
+        <v>0.1056257600961184</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1328982565222045</v>
+        <v>0.1263813035940399</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3989066235438271</v>
+        <v>0.5532434128551464</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.616132979467904</v>
+        <v>4.855256639604904</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.044403120220801</v>
+        <v>1.112869828736984</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.7859512823983416</v>
+        <v>-1.028426970611082</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.005691941806400449</v>
+        <v>0.008048270227557046</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06897670023178303</v>
+        <v>0.0723102840921217</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01321285294038323</v>
+        <v>0.01398855160261</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01266211383239178</v>
+        <v>-0.01609433930253731</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.045387588760863</v>
+        <v>4.82233602098122</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>9.185825794334885</v>
+        <v>9.220146913572403</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.047289422225847</v>
+        <v>4.958550865046661</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.850008110520726</v>
+        <v>3.897775528702724</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.07571215758711709</v>
+        <v>0.07257561489187474</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1413435331019702</v>
+        <v>0.1431246773008628</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06436409513167946</v>
+        <v>0.06336374746650419</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0634243025044639</v>
+        <v>0.06414226045113501</v>
       </c>
     </row>
     <row r="28">
